--- a/ccjl.xlsx
+++ b/ccjl.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoyongmao/dev/aiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E11985-C84F-0B47-9A30-838CCDE92097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C836E-3328-7047-849D-4E3EC43288AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2200" windowWidth="35840" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出车报告" sheetId="1" r:id="rId1"/>
+    <sheet name="details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="233">
   <si>
     <t>日期</t>
   </si>
@@ -121,9 +122,6 @@
     <t>1小时</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -155,13 +153,914 @@
   </si>
   <si>
     <t>三里屯-大兴机场</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>用车时间</t>
+  </si>
+  <si>
+    <t>车号</t>
+  </si>
+  <si>
+    <t>用车地点</t>
+  </si>
+  <si>
+    <t>行程</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>行驶里程(KM)</t>
+  </si>
+  <si>
+    <t>超公里数(KM)</t>
+  </si>
+  <si>
+    <t>OK
+(RMB)</t>
+  </si>
+  <si>
+    <t>OT超时
+(RMB)</t>
+  </si>
+  <si>
+    <t>Parking Fee(RMB)</t>
+  </si>
+  <si>
+    <t>高速费(RMB)</t>
+  </si>
+  <si>
+    <t>MealFee(RMB)</t>
+  </si>
+  <si>
+    <t>RENTAL
+(RMB)</t>
+  </si>
+  <si>
+    <t>SUB-TOTAL
+(RMB)</t>
+  </si>
+  <si>
+    <t>收款金额</t>
+  </si>
+  <si>
+    <t>收款时间</t>
+  </si>
+  <si>
+    <t>付款时间</t>
+  </si>
+  <si>
+    <t>付款金额</t>
+  </si>
+  <si>
+    <t>发票</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>上海许国庆</t>
+  </si>
+  <si>
+    <t>赵江-段玉岗</t>
+  </si>
+  <si>
+    <t>别克商务</t>
+  </si>
+  <si>
+    <t>京KJP358</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>北京南-西苑饭店-北京南站-花家怡园四合总店-西苑饭店</t>
+  </si>
+  <si>
+    <t>11:40-15:30</t>
+  </si>
+  <si>
+    <t>日期：2025年1月1日
+司机：段玉岗
+手机：13611208376
+车型：别克 653T
+车牌：京KJP358
+----------------------------------
+客户:刘英杰主任
+电话：13134218019
+时间：11:40--15:30
+行程:北京南站…西苑饭店…北京南站…花家怡园四合总店…西苑饭店
+公里：60
+停车费：11
+备注：已完成</t>
+  </si>
+  <si>
+    <t>西苑饭店-北京南站-鸽子张家宴鸟巢店-国家体育馆-中央美术学院-798艺术区-西苑饭店-南门涮肉北洼路店-西苑饭店</t>
+  </si>
+  <si>
+    <t>9:00-21:45</t>
+  </si>
+  <si>
+    <t>日期：2025年1月2日
+司机：段玉岗
+手机：13611208376
+车型：别克 653T
+车牌：京PPG967
+----------------------------------
+客户:刘英杰主任
+电话：13134218019
+时间：9:00--21:45
+行程:西苑饭店…北京南站…鸽子张家宴鸟巢店…国家体育馆…中央美术学院…798艺术区…西苑饭店…南门涮肉北洼路店…西苑饭店
+公里：87
+停车费：53
+备注：已完成</t>
+  </si>
+  <si>
+    <t>赵江-刘平</t>
+  </si>
+  <si>
+    <t>西苑饭店-北京南站-鸽子张家宴鸟巢店-南门涮肉北哇路店-聚宝源-西苑饭店-北京南站-南门涮肉北洼路店</t>
+  </si>
+  <si>
+    <t>9:00-20:40</t>
+  </si>
+  <si>
+    <t>日期：2025年1月2日
+司机：刘平
+手机：18801347150
+车型：别克 653T
+车牌：京KJP358
+-----------------------------
+客人：刘英杰
+电话：
+时间:9:00……20:37
+行程：西苑饭店……北京南站……鸽子张家宴鸟巢店……南门涮肉北哇路店……聚宝源……西苑饭店……北京南站……南门涮肉北洼路店，
+公里：106
+高速费：
+停车费57</t>
+  </si>
+  <si>
+    <t>西苑饭店-中国建筑科技展-果然居-清河站</t>
+  </si>
+  <si>
+    <t>8:00-14:10</t>
+  </si>
+  <si>
+    <t>日期：2025年1月3日
+司机：段玉岗
+手机：13611208376
+车型：别克 653T
+车牌：京PPG967
+----------------------------------
+客户:刘英杰主任
+电话：13134218019
+时间：8:00--14:10
+行程:西苑饭店…中国建筑科技展…果然居…清河站
+公里：52
+停车费：19
+备注：已完成</t>
+  </si>
+  <si>
+    <t>20250826-211110</t>
+  </si>
+  <si>
+    <t>2025年8月12日</t>
+  </si>
+  <si>
+    <t>日期:2025年8月12日
+司机:赵江
+电话:13911134510
+车号：京N8YY99
+车型：别克653T
+时间：11:30-15:35
+行程：四元桥宜家~首都机场T3~国贸商城~柏悦酒店
+行驶：55公里
+高速：20
+停车：28
+客户:苏小姐</t>
+  </si>
+  <si>
+    <t>2025.8.11</t>
+  </si>
+  <si>
+    <t>出车报告:
+出车日期:2025.8.11
+车型:奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:15810472035
+时间:8：00～9：00
+用车时长:1小时
+超出小时: 
+行驶里程:15公里
+超公里数:
+高速费用:元
+停车费用:元
+出车行程:嘉里公寓-望京研发中心</t>
+  </si>
+  <si>
+    <t>出车报告:
+出车日期:2025.8.11
+车型:奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:15810472035
+时间:14：10～14：47
+用车时长:37分钟
+超出小时: 
+行驶里程:15公里
+超公里数:
+高速费用:元
+停车费用:1.5元
+出车行程:望京研发中心-嘉里公寓</t>
+  </si>
+  <si>
+    <t>出车报告:
+出车日期:2025.8.11
+车型:奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:15810472035
+时间:18：10～19：25
+用车时长:1小时15分钟
+超出小时: 
+行驶里程:58公里
+超公里数:
+高速费用:11元
+停车费用:元
+出车行程:三里屯-大兴机场</t>
+  </si>
+  <si>
+    <t>刘英杰主任</t>
+  </si>
+  <si>
+    <t>2025年1月1日</t>
+  </si>
+  <si>
+    <t>段玉岗</t>
+  </si>
+  <si>
+    <t>13134218019</t>
+  </si>
+  <si>
+    <t>别克 653T</t>
+  </si>
+  <si>
+    <t>北京南站…西苑饭店…北京南站…花家怡园四合总店…西苑饭店</t>
+  </si>
+  <si>
+    <t>11:40--15:30</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2025年1月2日</t>
+  </si>
+  <si>
+    <t>京PPG967</t>
+  </si>
+  <si>
+    <t>西苑饭店…北京南站…鸽子张家宴鸟巢店…国家体育馆…中央美术学院…798艺术区…西苑饭店…南门涮肉北洼路店…西苑饭店</t>
+  </si>
+  <si>
+    <t>9:00--21:45</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>刘英杰</t>
+  </si>
+  <si>
+    <t>刘平</t>
+  </si>
+  <si>
+    <t>西苑饭店……北京南站……鸽子张家宴鸟巢店……南门涮肉北哇路店……聚宝源……西苑饭店……北京南站……南门涮肉北洼路店，</t>
+  </si>
+  <si>
+    <t>9:00……20:37</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>2025年1月3日</t>
+  </si>
+  <si>
+    <t>西苑饭店…中国建筑科技展…果然居…清河站</t>
+  </si>
+  <si>
+    <t>8:00--14:10</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2025.1.3</t>
+  </si>
+  <si>
+    <t>大兴机场-嘉里大酒店</t>
+  </si>
+  <si>
+    <t>19:18～22:06</t>
+  </si>
+  <si>
+    <t>2小时48分</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1月2-3日考斯特
+司机：闫新光
+手机：13671196168,
+车号：京AUL266
+====================================
+考斯特司机:闫新光,
+车号:京AUL266
+1月2日14:30-21:40,南站-西苑饭店-南门涮肉-西苑饭店,
+1月3日7:40-14:00,西苑饭店-首钢园-果然居顺德菜-南站,停车12元
+====================================
+出车报告:
+出车日期:2025.1.3
+车型:奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:15810472035
+时间:19:18～22:06
+用车时长:2小时48分
+超出小时: 
+行驶里程:60公里
+超公里数:
+高速费用:11元
+停车费用:27元
+出车行程:大兴机场-嘉里大酒店</t>
+  </si>
+  <si>
+    <t>杨孟冬</t>
+  </si>
+  <si>
+    <t>13261128906</t>
+  </si>
+  <si>
+    <t>奔驰E300</t>
+  </si>
+  <si>
+    <t>京A5SS75</t>
+  </si>
+  <si>
+    <t>北京大兴机场→→北京香格里拉</t>
+  </si>
+  <si>
+    <t>1月6号（接机）</t>
+  </si>
+  <si>
+    <t>城市：北京
+时间：1月6号（接机）
+人数：2位
+航班信息：CZ346, 13:40
+路线：北京大兴机场→→北京香格里拉
+举牌子：Avakova Karine （给卡丽娜）
+车子：奔驰E级
+——————————
+车型：奔驰E300
+车号：京A5SS75
+司机：杨孟冬
+手机：13261128906</t>
+  </si>
+  <si>
+    <t>Mr.Mads.GyIdenberg</t>
+  </si>
+  <si>
+    <t>2025.1.7</t>
+  </si>
+  <si>
+    <t>13693042252</t>
+  </si>
+  <si>
+    <t>豪华奔驰V260L</t>
+  </si>
+  <si>
+    <t>首都机场T3～世茂工三酒店</t>
+  </si>
+  <si>
+    <t>16:15～17:01</t>
+  </si>
+  <si>
+    <t>46分钟</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>接机牌：Mr.Mads.GyIdenberg
+行程安排如下：
+起点：首都机场T3
+终点：世贸工三国际公寓
+车型：奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252                         出车报告:
+出车日期:2025.1.7
+车型:豪华奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252
+时间:16：15～17：01
+用车时长:46分钟
+超出小时: 
+行驶里程:23公里
+超公里数:
+高速费用:9.5元
+停车费用:
+出车行程:首都机场T3～世茂工三酒店</t>
+  </si>
+  <si>
+    <t>郑文陆</t>
+  </si>
+  <si>
+    <t>13530164543</t>
+  </si>
+  <si>
+    <t>深圳机场/福田香格里拉/证券交易所/福田香格里拉</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>别克：商务车
+师傅：郑文陆
+电话：13530164543
+日期1月811点45到17点10分
+行程：深圳机场/福田香格里拉/证券交易所/福田香格里拉
+里程：74
+高速费：13
+停车费：10
+歺补：1</t>
+  </si>
+  <si>
+    <t>周坤老师</t>
+  </si>
+  <si>
+    <t>杜国昌</t>
+  </si>
+  <si>
+    <t>京ND05Z8</t>
+  </si>
+  <si>
+    <t>本田雅阁</t>
+  </si>
+  <si>
+    <t>太阳园～首都机场</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>上车时间：2025年1月9日08:40分
+行程：深圳福田香格里拉酒店——康泰集团大厦（地址：深圳市蜀海街道科发路222号）——预计10:30分左右结束会议，送至香港The Pottinger Hong Kong酒店（地址：香港中西区中环皇后大道74号）
+联系人：待定
+————————————
+服务司机：林司机
+电话：+86 15989856377
+香港：+852  69401377
+香港车牌：ZH135
+大陆车牌：粤ZBA42港（香槟金）
+====================================
+周坤13810575150
+1月10日06:10从大钟寺太阳园西门出发！
+司机:杜国昌
+电话:13601100528 
+电话:京ND05Z8
+车型:本田雅阁
+公里：30
+时间6:00～6:40
+客人:周坤老师
+电话13810575150
+行程:太阳园～首都机场</t>
+  </si>
+  <si>
+    <t>房竣峰</t>
+  </si>
+  <si>
+    <t>17501177839</t>
+  </si>
+  <si>
+    <t>天籁</t>
+  </si>
+  <si>
+    <t>京AZW229</t>
+  </si>
+  <si>
+    <t>石景山法院～..首都T3</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+司机:房竣峰
+电话:17501177839
+车号:京AZW229
+车型:天籁 
+行程：石景山法院～..首都T3
+开始时间：6:10
+结束时间：7:00
+里程：50公里
+备注：行程结束</t>
+  </si>
+  <si>
+    <t>2025.1.10</t>
+  </si>
+  <si>
+    <t>首都T3机场-太阳园西门</t>
+  </si>
+  <si>
+    <t>20:40～21:50</t>
+  </si>
+  <si>
+    <t>1小时10分</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>姓名:张师傅
+电话:15810472035                         出车报告:
+出车日期:2025.1.10
+车型:奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:15810472035
+时间:20:40～21:50
+用车时长:1小时10分
+超出小时: 
+行驶里程:34公里
+超公里数:
+高速费用:10元
+停车费用:9元
+出车行程:首都T3机场-太阳园西门</t>
+  </si>
+  <si>
+    <t>蔡舒惟</t>
+  </si>
+  <si>
+    <t>2025.1.13（周一）</t>
+  </si>
+  <si>
+    <t>139 1017 0147</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>上海浦东T2-餐厅</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>订单1（更新版）
+客户：Glencore
+用车地：上海
+乘客姓名：David Thomas， Joshua Berman
+日期：2025.1.13（周一）
+时间：16:50
+航班：LH726 
+联系人：蔡舒惟
+电话：139 1017 0147
+行程：上海浦东T2-餐厅
+餐厅地址：黄浦区圆明园路88号益外滩源2楼西侧201</t>
+  </si>
+  <si>
+    <t>张绪想</t>
+  </si>
+  <si>
+    <t>16621708189</t>
+  </si>
+  <si>
+    <t>GL8</t>
+  </si>
+  <si>
+    <t>沪EBM665</t>
+  </si>
+  <si>
+    <t>上海浦东T2-上海艾迪逊酒店</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>客户：Glencore
+用车地：上海
+乘客姓名：David Thomas
+日期：2025.1.13（周一）
+时间：22:00
+航班：CX362
+联系人：蔡舒惟
+电话：139 1017 0147
+行程：上海浦东T2-上海艾迪逊酒店
+车型：GL8
+车号：沪EBM665
+司机：张绪想
+手机：16621708189</t>
+  </si>
+  <si>
+    <t>2025.1.14(周二）</t>
+  </si>
+  <si>
+    <t>早上8:25</t>
+  </si>
+  <si>
+    <t>客户：Glencore
+用车地：上海
+乘客姓名：Joshua Berman
+日期：2025.1.14(周二）
+时间：早上8:25
+航班：LX188
+联系人：蔡舒惟
+电话：139 1017 0147
+行程：上海浦东T2-上海艾迪逊酒店
+车型：GL8
+车号：沪EBM665
+司机：张绪想
+手机：16621708189</t>
+  </si>
+  <si>
+    <t>2025.1.15</t>
+  </si>
+  <si>
+    <t>大兴机场-首都宾馆-北京国际饭店- 首都宾馆</t>
+  </si>
+  <si>
+    <t>15:20～20:40</t>
+  </si>
+  <si>
+    <t>5.5小时</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>38.25</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>车型:奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252                          出车报告:
+出车日期:2025.1.15
+车型:豪华奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252
+时间:15：20～20：40
+用车时长:5.5小时
+超出小时: 
+行驶里程:54公里
+超公里数:
+高速费用:13.3元
+停车费用:38.25元
+出车行程:大兴机场-首都宾馆-北京国际饭店- 首都宾馆</t>
+  </si>
+  <si>
+    <t>陈处长</t>
+  </si>
+  <si>
+    <t>2024-1-17</t>
+  </si>
+  <si>
+    <t>孟庆顺</t>
+  </si>
+  <si>
+    <t>15001336636</t>
+  </si>
+  <si>
+    <t>7座商务车</t>
+  </si>
+  <si>
+    <t>京MDL173</t>
+  </si>
+  <si>
+    <t>首都宾馆~大兴机场</t>
+  </si>
+  <si>
+    <t>09.30-10.40</t>
+  </si>
+  <si>
+    <t>1小时10分钟</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>司机姓名：孟庆顺
+司机电话：15001336636
+出车日期:2024-1-17
+车辆型号:7座商务车
+车牌号码:京MDL173
+__________________________
+客人姓名：陈处长
+客人电话：18505918089
+起止时间:09.30-10.40
+用车时长:1小时10分钟
+用车行程：首都宾馆~大兴机场
+行驶里程：51公里
+停车费：~元
+过路费：11元</t>
+  </si>
+  <si>
+    <t>GL8-653T</t>
+  </si>
+  <si>
+    <t>车型：别克GL8653T
+车号：京ND1575
+姓名：陶武胜
+手机：13552794488
+司机：孟庆顺
+电话：15001336636
+车号：京MDL173
+车型：GL8-653T</t>
+  </si>
+  <si>
+    <t>2025.1.20</t>
+  </si>
+  <si>
+    <t>首都机场T3航站楼～东方君悦酒店</t>
+  </si>
+  <si>
+    <t>9:02～10:06</t>
+  </si>
+  <si>
+    <t>64分钟</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>出车报告:
+出车日期:2025.1.20
+车型:豪华奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252
+时间:9：02～10：06
+用车时长:64分钟
+超出小时: 
+行驶里程:29公里
+超公里数:
+高速费用:9.5元
+停车费用:4.5
+出车行程:首都机场T3航站楼～东方君悦酒店</t>
+  </si>
+  <si>
+    <t>石杰</t>
+  </si>
+  <si>
+    <t>18017191155</t>
+  </si>
+  <si>
+    <t>奔驰E</t>
+  </si>
+  <si>
+    <t>沪ESF702</t>
+  </si>
+  <si>
+    <t>波特曼—苏州恒力—波特曼—宝龙艾美酒店</t>
+  </si>
+  <si>
+    <t>14:00—20:40</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>车牌：沪ESF702
+电话：18017191155
+车型：奔驰E
+司机：石杰                                     出车日期：1/21
+起止时间：14:00—20:40
+出车司机:石杰
+车辆型号：奔驰E
+车牌号码：沪ESF702
+用车行程：波特曼—苏州恒力—波特曼—宝龙艾美酒店
+行驶公里：240</t>
+  </si>
+  <si>
+    <t>2025.1.31</t>
+  </si>
+  <si>
+    <t>康师傅</t>
+  </si>
+  <si>
+    <t>18600007271</t>
+  </si>
+  <si>
+    <t>北京首都机场T3~国贸公寓</t>
+  </si>
+  <si>
+    <t>18:00～19:30</t>
+  </si>
+  <si>
+    <t>1.5小时</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>航班号：CX6112
+到达时间：18:00
+北京首都机场T3到国贸公寓
+行程安排如下：
+司机：康师傅
+手机：18600007271
+车型：奔驰V260L
+车号：京P03156                             出车报告:
+出车日期:2025.1.31
+车型:奔驰V260L
+车牌:京P03156
+姓名:康师傅
+电话:18600007271
+时间:18：00～19：30
+用车时长:1.5小时
+超出小时: 
+行驶里程:30公里
+超公里数:
+高速费用:元
+停车费用:18
+出车行程:北京首都机场T3~国贸公寓</t>
+  </si>
+  <si>
+    <t>2025.2.1</t>
+  </si>
+  <si>
+    <t>北京南站～颐和园～天安门广场～丽晶酒店～四季民福烤鸭店</t>
+  </si>
+  <si>
+    <t>13:00～19:30</t>
+  </si>
+  <si>
+    <t>6.5小时</t>
+  </si>
+  <si>
+    <t>出车日期:2025.2.1
+车型:奔驰V260L
+车牌:京P03156
+姓名:康师傅
+电话:18600007271
+时间:13：00～19：30
+用车时长:6.5小时
+超出小时: 
+行驶里程:54公里
+超公里数:
+高速费用:元
+停车费用:
+出车行程:北京南站～颐和园～天安门广场～丽晶酒店～四季民福烤鸭店</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,16 +1082,77 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -215,14 +1175,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,11 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -542,22 +1602,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -569,22 +1629,22 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -648,14 +1708,11 @@
       <c r="H3">
         <v>60</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -675,25 +1732,22 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
       </c>
       <c r="H4">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
       <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
         <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -713,29 +1767,1290 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
       </c>
       <c r="H5">
         <v>75</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="11" customWidth="1"/>
+    <col min="6" max="8" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="11" customWidth="1"/>
+    <col min="12" max="14" width="15" style="11" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="11" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="30" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="10"/>
+    </row>
+    <row r="2" spans="1:28" ht="94" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45658</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="17">
+        <v>11</v>
+      </c>
+      <c r="R2" s="17"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19">
+        <v>650</v>
+      </c>
+      <c r="U2" s="19">
+        <v>661</v>
+      </c>
+      <c r="V2" s="20">
+        <v>661</v>
+      </c>
+      <c r="W2" s="15"/>
+      <c r="X2" s="14">
+        <v>45757</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>411</v>
+      </c>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" ht="116" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="14">
+        <v>45659</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19">
+        <v>337.5</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>53</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19">
+        <v>650</v>
+      </c>
+      <c r="U3" s="19">
+        <v>1040.5</v>
+      </c>
+      <c r="V3" s="20">
+        <v>1040.5</v>
+      </c>
+      <c r="W3" s="15"/>
+      <c r="X3" s="14">
+        <v>45757</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>903</v>
+      </c>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" ht="100" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="14">
+        <v>45659</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19">
+        <v>275</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>57</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19">
+        <v>650</v>
+      </c>
+      <c r="U4" s="19">
+        <v>982</v>
+      </c>
+      <c r="V4" s="20">
+        <v>982</v>
+      </c>
+      <c r="W4" s="15"/>
+      <c r="X4" s="14">
+        <v>45757</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>887</v>
+      </c>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" ht="92" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14">
+        <v>45660</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19">
+        <v>19</v>
+      </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19">
+        <v>650</v>
+      </c>
+      <c r="U5" s="19">
+        <v>669</v>
+      </c>
+      <c r="V5" s="20">
+        <v>669</v>
+      </c>
+      <c r="W5" s="15"/>
+      <c r="X5" s="14">
+        <v>45757</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>619</v>
+      </c>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="10"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="AA7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8"/>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8"/>
+      <c r="AA8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9"/>
+      <c r="Q9"/>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12"/>
+      <c r="AA12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14"/>
+      <c r="Q14" t="s">
+        <v>118</v>
+      </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16"/>
+      <c r="Q16"/>
+      <c r="R16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>141</v>
+      </c>
+      <c r="R17" t="s">
+        <v>142</v>
+      </c>
+      <c r="S17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20"/>
+      <c r="Q20" t="s">
+        <v>164</v>
+      </c>
+      <c r="R20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="s">
+        <v>187</v>
+      </c>
+      <c r="N24"/>
+      <c r="Q24" t="s">
+        <v>188</v>
+      </c>
+      <c r="R24" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27"/>
+      <c r="Q27" t="s">
+        <v>210</v>
+      </c>
+      <c r="R27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>150</v>
+      </c>
+      <c r="N29"/>
+      <c r="Q29" t="s">
+        <v>226</v>
+      </c>
+      <c r="R29"/>
+      <c r="AA29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="AA30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>